--- a/results/I3_N5_M2_T45_C100_DepCentral_s4_P4_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s4_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1859.582031214348</v>
+        <v>2086.098673017256</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.498670958911783e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.8420312143451</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.166312914896986</v>
+        <v>12.40185083848012</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.166312914896986</v>
+        <v>5.764833041814827</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1059.510000000003</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.2299999999998</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.11977998608629</v>
+        <v>39.58582527041438</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.76809653609517</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.880220013913707</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>31.61595173195241</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>37.11679712152664</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.93580555415204</v>
+        <v>42.40185083848012</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.96623907878366</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,15 +1127,155 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>198.0050000000005</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1304,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>195.05</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
@@ -1315,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>195.45</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
@@ -1326,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>195.5800000000005</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11">
@@ -1337,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>179.4700000000005</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12">
@@ -1348,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>61.9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -1359,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>67.09000000000066</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -1370,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>67.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -1381,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>66.09000000000066</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -1392,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>62.81000000000066</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1403,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000073</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1414,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000073</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1425,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1436,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1447,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000073</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1458,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.53</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
@@ -1469,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>115.89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
@@ -1480,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>114.45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
@@ -1491,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>117.09</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
@@ -1502,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>110.24</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
@@ -1513,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>90.01000000000043</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28">
@@ -1524,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>89.54000000000042</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
@@ -1535,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>90.78500000000045</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
@@ -1546,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>91.07500000000044</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31">
@@ -1557,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>82.86500000000044</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
@@ -1568,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>198.0050000000005</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
@@ -1579,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>195.05</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
@@ -1590,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>195.45</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
@@ -1601,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>195.5800000000005</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
@@ -1612,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.4700000000005</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
@@ -1623,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>108.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1634,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>115.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1645,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>114.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1656,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>117.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1667,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>110.24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>98.00500000000054</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
@@ -1725,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>95.05</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -1736,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>95.44999999999999</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -1747,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>95.58000000000052</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
@@ -1758,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>79.47000000000051</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -1769,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.530000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1780,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1791,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>14.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1802,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>17.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1813,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10.24000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1926,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1937,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1948,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1959,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1981,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1992,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2003,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2014,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2025,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2036,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2058,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2069,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2091,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>24.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2102,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>29.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2113,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>24.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2124,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.45</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2138,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2220,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2231,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2242,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2253,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2264,12 +2349,122 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
